--- a/TestCaseData/TestCaseData_reverse2.xlsx
+++ b/TestCaseData/TestCaseData_reverse2.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\LendingTree\test-automation\trunk\TestCaseData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mschupp\Documents\GitHub\LT-TestAutomation\TestCaseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="reverse2" sheetId="1" r:id="rId1"/>
+    <sheet name="r2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="143">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -191,12 +192,6 @@
     <t>DebtConsultYesNo</t>
   </si>
   <si>
-    <t>MortgageInsuranceYesNo</t>
-  </si>
-  <si>
-    <t>EmailOptInYesNo</t>
-  </si>
-  <si>
     <t>HomeServicesOptInYesNo</t>
   </si>
   <si>
@@ -296,9 +291,6 @@
     <t>PROD</t>
   </si>
   <si>
-    <t>&amp;mpid=8550&amp;devicemonitor=selenium</t>
-  </si>
-  <si>
     <t>Montana</t>
   </si>
   <si>
@@ -392,13 +384,76 @@
     <t>random</t>
   </si>
   <si>
-    <t>FIREFOX</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
     <t>Investment property</t>
+  </si>
+  <si>
+    <t>1180 Seven Seas Dr</t>
+  </si>
+  <si>
+    <t>CHROME</t>
+  </si>
+  <si>
+    <t>59602</t>
+  </si>
+  <si>
+    <t>TimeToPurchase</t>
+  </si>
+  <si>
+    <t>r2_01_ValidAndEligible</t>
+  </si>
+  <si>
+    <t>r2_02_InvalidTooYoung</t>
+  </si>
+  <si>
+    <t>r2_03_InvalidNotPrimary</t>
+  </si>
+  <si>
+    <t>r2_04_InvalidBalanceTooHigh</t>
+  </si>
+  <si>
+    <t>r2_05_LoanTooHigh</t>
+  </si>
+  <si>
+    <t>r2_06_InvalidEverythingWrong</t>
+  </si>
+  <si>
+    <t>r2_07_InvalidNotPrimaryBalanceTooHighLoanTooHigh</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r2_08_TestMarketplace</t>
+  </si>
+  <si>
+    <t>Prod_r2_01</t>
+  </si>
+  <si>
+    <t>Prod_r2_02</t>
+  </si>
+  <si>
+    <t>Single Family Home</t>
+  </si>
+  <si>
+    <t>Condominium</t>
+  </si>
+  <si>
+    <t>Primary Home</t>
+  </si>
+  <si>
+    <t>Secondary Home</t>
+  </si>
+  <si>
+    <t>Rental Property</t>
+  </si>
+  <si>
+    <t>&amp;esourceid=14349</t>
+  </si>
+  <si>
+    <t>&amp;esourceid=14349&amp;mpid=8550&amp;devicemonitor=selenium</t>
   </si>
 </sst>
 </file>
@@ -718,13 +773,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN11"/>
+  <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
@@ -751,7 +806,7 @@
     <col min="63" max="63" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,10 +829,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -945,74 +1000,74 @@
         <v>61</v>
       </c>
       <c r="BM1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="H2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
         <v>69</v>
-      </c>
-      <c r="O2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" t="s">
-        <v>71</v>
       </c>
       <c r="U2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="AA2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AH2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AJ2">
         <v>407</v>
@@ -1024,110 +1079,104 @@
         <v>3463</v>
       </c>
       <c r="AR2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AW2">
         <v>1950</v>
       </c>
       <c r="BD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BF2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BG2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BH2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BI2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
       </c>
       <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
         <v>64</v>
       </c>
-      <c r="H3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
         <v>66</v>
       </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="2">
-        <v>32830</v>
+      <c r="M3" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="AA3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>78</v>
-      </c>
       <c r="AH3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>32830</v>
+        <v>72</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AJ3">
         <v>407</v>
@@ -1139,107 +1188,101 @@
         <v>3463</v>
       </c>
       <c r="AR3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AW3">
         <v>1956</v>
       </c>
       <c r="BD3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BF3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BG3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BH3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="2">
-        <v>32830</v>
+        <v>66</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="AA4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>32830</v>
+        <v>72</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AJ4">
         <v>407</v>
@@ -1251,107 +1294,101 @@
         <v>3463</v>
       </c>
       <c r="AR4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AW4">
         <v>1949</v>
       </c>
       <c r="BD4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BF4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BG4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BH4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
+      <c r="F5" t="s">
+        <v>141</v>
       </c>
       <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>65</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="2">
-        <v>32830</v>
+      <c r="M5" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="AA5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AF5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>32830</v>
+        <v>72</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AJ5">
         <v>407</v>
@@ -1363,107 +1400,101 @@
         <v>3463</v>
       </c>
       <c r="AR5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AW5">
         <v>1948</v>
       </c>
       <c r="BD5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BF5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BG5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BH5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
       </c>
       <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
         <v>64</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>66</v>
       </c>
-      <c r="J6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="2">
-        <v>32830</v>
+      <c r="M6" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="N6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="AA6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH6" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>32830</v>
+      <c r="AI6" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AJ6">
         <v>407</v>
@@ -1475,107 +1506,101 @@
         <v>3463</v>
       </c>
       <c r="AR6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AW6">
         <v>1947</v>
       </c>
       <c r="BD6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BF6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BG6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BH6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
-      </c>
       <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="2">
-        <v>32830</v>
+        <v>66</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="AA7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH7" t="s">
         <v>72</v>
       </c>
-      <c r="AF7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>32830</v>
+      <c r="AI7" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AJ7">
         <v>407</v>
@@ -1587,107 +1612,101 @@
         <v>3463</v>
       </c>
       <c r="AR7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AW7">
         <v>1963</v>
       </c>
       <c r="BD7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BF7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BG7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BH7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" t="s">
         <v>65</v>
       </c>
-      <c r="I8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
       <c r="K8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="2">
-        <v>32830</v>
+        <v>66</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="AA8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH8" t="s">
         <v>72</v>
       </c>
-      <c r="AF8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>32830</v>
+      <c r="AI8" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AJ8">
         <v>407</v>
@@ -1699,226 +1718,208 @@
         <v>3463</v>
       </c>
       <c r="AR8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW8">
+        <v>1915</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
         <v>119</v>
       </c>
-      <c r="AV8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW8">
-        <v>1916</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
         <v>64</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
         <v>65</v>
       </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="AA9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
         <v>76</v>
       </c>
-      <c r="AB9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>78</v>
-      </c>
       <c r="AH9" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AJ9">
-        <v>704</v>
+        <v>407</v>
       </c>
       <c r="AK9">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="AL9">
-        <v>5351</v>
+        <v>1212</v>
       </c>
       <c r="AR9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AW9">
         <v>1950</v>
       </c>
       <c r="BD9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BF9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BG9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BH9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BI9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" t="s">
         <v>90</v>
       </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="S10" t="s">
         <v>91</v>
       </c>
-      <c r="K10" t="s">
+      <c r="AA10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH10" t="s">
         <v>92</v>
       </c>
-      <c r="M10" s="2">
-        <v>59602</v>
-      </c>
-      <c r="N10" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" t="s">
-        <v>93</v>
-      </c>
-      <c r="S10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>59602</v>
+      <c r="AI10" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="AJ10">
         <v>407</v>
@@ -1930,111 +1931,102 @@
         <v>3463</v>
       </c>
       <c r="AR10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AW10">
         <v>1950</v>
       </c>
       <c r="BD10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BF10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BG10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BH10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BI10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="M11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH11" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="2">
-        <v>59602</v>
-      </c>
-      <c r="N11" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" t="s">
-        <v>69</v>
-      </c>
-      <c r="R11" t="s">
-        <v>82</v>
-      </c>
-      <c r="S11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI11" s="2">
-        <v>59602</v>
+      <c r="AI11" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="AJ11">
         <v>704</v>
@@ -2046,52 +2038,1345 @@
         <v>5351</v>
       </c>
       <c r="AR11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AW11">
         <v>1950</v>
       </c>
       <c r="BD11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BF11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BG11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BH11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BI11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="M9 AU2:AV11 AI2:AI11" numberStoredAsText="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.42578125" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="2"/>
+    <col min="47" max="48" width="9.140625" style="2"/>
+    <col min="50" max="50" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="24" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="AA2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2">
+        <v>407</v>
+      </c>
+      <c r="AK2">
+        <v>939</v>
+      </c>
+      <c r="AL2">
+        <v>3463</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW2">
+        <v>1950</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="AA3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3">
+        <v>407</v>
+      </c>
+      <c r="AK3">
+        <v>939</v>
+      </c>
+      <c r="AL3">
+        <v>3463</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW3">
+        <v>1956</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="AA4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ4">
+        <v>407</v>
+      </c>
+      <c r="AK4">
+        <v>939</v>
+      </c>
+      <c r="AL4">
+        <v>3463</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW4">
+        <v>1949</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="AA5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ5">
+        <v>407</v>
+      </c>
+      <c r="AK5">
+        <v>939</v>
+      </c>
+      <c r="AL5">
+        <v>3463</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW5">
+        <v>1948</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" t="s">
+        <v>85</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="AA6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ6">
+        <v>407</v>
+      </c>
+      <c r="AK6">
+        <v>939</v>
+      </c>
+      <c r="AL6">
+        <v>3463</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW6">
+        <v>1947</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="AA7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ7">
+        <v>407</v>
+      </c>
+      <c r="AK7">
+        <v>939</v>
+      </c>
+      <c r="AL7">
+        <v>3463</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW7">
+        <v>1963</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="AA8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ8">
+        <v>407</v>
+      </c>
+      <c r="AK8">
+        <v>939</v>
+      </c>
+      <c r="AL8">
+        <v>3463</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW8">
+        <v>1915</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="AA9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ9">
+        <v>407</v>
+      </c>
+      <c r="AK9">
+        <v>555</v>
+      </c>
+      <c r="AL9">
+        <v>1212</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW9">
+        <v>1950</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ10">
+        <v>407</v>
+      </c>
+      <c r="AK10">
+        <v>939</v>
+      </c>
+      <c r="AL10">
+        <v>3463</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW10">
+        <v>1950</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ11">
+        <v>704</v>
+      </c>
+      <c r="AK11">
+        <v>541</v>
+      </c>
+      <c r="AL11">
+        <v>5351</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW11">
+        <v>1950</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>